--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="400">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-28T07:59:31+00:00</t>
+    <t>2022-10-10T09:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,10 +238,6 @@
   </si>
   <si>
     <t>A specific set of Roles/Locations/specialties/services that a practitioner may perform at an organization for a period of time.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>PractitionerRole.id</t>
@@ -515,10 +511,6 @@
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>PractitionerRole.practitioner.id</t>
@@ -1086,6 +1078,10 @@
   </si>
   <si>
     <t>The location(s) at which this practitioner provides care.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>PractitionerRole.healthcareService</t>
@@ -1827,12 +1823,12 @@
         <v>69</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1843,28 +1839,28 @@
         <v>70</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1914,13 +1910,13 @@
         <v>69</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>69</v>
@@ -1931,7 +1927,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1942,25 +1938,25 @@
         <v>70</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2011,24 +2007,24 @@
         <v>69</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2039,28 +2035,28 @@
         <v>70</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2110,24 +2106,24 @@
         <v>69</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI5" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2138,7 +2134,7 @@
         <v>70</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>69</v>
@@ -2150,16 +2146,16 @@
         <v>69</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2185,59 +2181,59 @@
         <v>69</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI6" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>69</v>
@@ -2249,16 +2245,16 @@
         <v>69</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2308,28 +2304,28 @@
         <v>69</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI7" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2348,16 +2344,16 @@
         <v>69</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2407,7 +2403,7 @@
         <v>69</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>70</v>
@@ -2424,11 +2420,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2447,16 +2443,16 @@
         <v>69</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2494,19 +2490,19 @@
         <v>69</v>
       </c>
       <c r="AA9" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AB9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AB9" t="s" s="2">
+      <c r="AC9" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AC9" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD9" t="s" s="2">
+      <c r="AE9" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>70</v>
@@ -2515,19 +2511,19 @@
         <v>71</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2540,25 +2536,25 @@
         <v>69</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>69</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>69</v>
@@ -2595,19 +2591,19 @@
         <v>69</v>
       </c>
       <c r="AA10" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AB10" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AB10" t="s" s="2">
+      <c r="AC10" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD10" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AC10" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AE10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>70</v>
@@ -2616,15 +2612,15 @@
         <v>71</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2644,20 +2640,20 @@
         <v>69</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>69</v>
@@ -2706,7 +2702,7 @@
         <v>69</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>70</v>
@@ -2715,15 +2711,15 @@
         <v>71</v>
       </c>
       <c r="AH11" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI11" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2734,38 +2730,38 @@
         <v>70</v>
       </c>
       <c r="F12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J12" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="P12" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="Q12" t="s" s="2">
         <v>69</v>
       </c>
@@ -2809,24 +2805,24 @@
         <v>69</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI12" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2837,31 +2833,31 @@
         <v>70</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J13" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>69</v>
@@ -2910,24 +2906,24 @@
         <v>69</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2938,28 +2934,28 @@
         <v>70</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J14" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3009,24 +3005,24 @@
         <v>69</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>159</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3037,7 +3033,7 @@
         <v>70</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>69</v>
@@ -3049,13 +3045,13 @@
         <v>69</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3106,13 +3102,13 @@
         <v>69</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>69</v>
@@ -3123,11 +3119,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3146,16 +3142,16 @@
         <v>69</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3193,19 +3189,19 @@
         <v>69</v>
       </c>
       <c r="AA16" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AB16" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AB16" t="s" s="2">
+      <c r="AC16" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD16" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AC16" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AE16" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>70</v>
@@ -3217,12 +3213,12 @@
         <v>69</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3233,28 +3229,28 @@
         <v>70</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3304,24 +3300,24 @@
         <v>69</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3332,28 +3328,28 @@
         <v>70</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3379,48 +3375,48 @@
         <v>69</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="AF18" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3431,28 +3427,28 @@
         <v>70</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H19" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3502,24 +3498,24 @@
         <v>69</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3530,7 +3526,7 @@
         <v>70</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>69</v>
@@ -3542,13 +3538,13 @@
         <v>69</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3599,13 +3595,13 @@
         <v>69</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>69</v>
@@ -3616,11 +3612,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3639,16 +3635,16 @@
         <v>69</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="L21" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3686,19 +3682,19 @@
         <v>69</v>
       </c>
       <c r="AA21" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AB21" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AB21" t="s" s="2">
+      <c r="AC21" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD21" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AC21" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AE21" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>70</v>
@@ -3710,12 +3706,12 @@
         <v>69</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3726,31 +3722,31 @@
         <v>70</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H22" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>69</v>
@@ -3775,48 +3771,48 @@
         <v>69</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="AF22" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3827,31 +3823,31 @@
         <v>70</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>69</v>
@@ -3876,48 +3872,48 @@
         <v>69</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="AF23" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3928,31 +3924,31 @@
         <v>70</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H24" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>69</v>
@@ -3965,7 +3961,7 @@
         <v>69</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>69</v>
@@ -3977,11 +3973,11 @@
         <v>69</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>69</v>
@@ -3999,24 +3995,24 @@
         <v>69</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4027,28 +4023,28 @@
         <v>70</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H25" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4062,7 +4058,7 @@
         <v>69</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>69</v>
@@ -4098,24 +4094,24 @@
         <v>69</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4126,25 +4122,25 @@
         <v>70</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4195,24 +4191,24 @@
         <v>69</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4223,28 +4219,28 @@
         <v>70</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4294,24 +4290,24 @@
         <v>69</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4322,28 +4318,28 @@
         <v>70</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G28" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H28" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4393,24 +4389,24 @@
         <v>69</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4421,28 +4417,28 @@
         <v>70</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J29" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4492,24 +4488,24 @@
         <v>69</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>159</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4520,7 +4516,7 @@
         <v>70</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>69</v>
@@ -4532,13 +4528,13 @@
         <v>69</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4589,13 +4585,13 @@
         <v>69</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>69</v>
@@ -4606,11 +4602,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4629,16 +4625,16 @@
         <v>69</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="L31" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4676,19 +4672,19 @@
         <v>69</v>
       </c>
       <c r="AA31" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AB31" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AB31" t="s" s="2">
+      <c r="AC31" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD31" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AC31" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AE31" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>70</v>
@@ -4700,12 +4696,12 @@
         <v>69</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4716,28 +4712,28 @@
         <v>70</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4787,24 +4783,24 @@
         <v>69</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4815,28 +4811,28 @@
         <v>70</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4862,48 +4858,48 @@
         <v>69</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="AF33" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4914,28 +4910,28 @@
         <v>70</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G34" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H34" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4985,24 +4981,24 @@
         <v>69</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5013,7 +5009,7 @@
         <v>70</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>69</v>
@@ -5025,13 +5021,13 @@
         <v>69</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5082,13 +5078,13 @@
         <v>69</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>69</v>
@@ -5099,11 +5095,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5122,16 +5118,16 @@
         <v>69</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="L36" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5169,19 +5165,19 @@
         <v>69</v>
       </c>
       <c r="AA36" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AB36" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AB36" t="s" s="2">
+      <c r="AC36" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD36" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AC36" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AE36" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>70</v>
@@ -5193,12 +5189,12 @@
         <v>69</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5209,31 +5205,31 @@
         <v>70</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>69</v>
@@ -5258,48 +5254,48 @@
         <v>69</v>
       </c>
       <c r="W37" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="X37" t="s" s="2">
+      <c r="Z37" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="AF37" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5310,31 +5306,31 @@
         <v>70</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J38" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>69</v>
@@ -5359,48 +5355,48 @@
         <v>69</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="AF38" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5411,31 +5407,31 @@
         <v>70</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H39" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>69</v>
@@ -5448,7 +5444,7 @@
         <v>69</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>69</v>
@@ -5460,11 +5456,11 @@
         <v>69</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>69</v>
@@ -5482,24 +5478,24 @@
         <v>69</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5510,28 +5506,28 @@
         <v>70</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G40" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H40" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5545,7 +5541,7 @@
         <v>69</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>69</v>
@@ -5581,24 +5577,24 @@
         <v>69</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5609,25 +5605,25 @@
         <v>70</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5678,24 +5674,24 @@
         <v>69</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5706,28 +5702,28 @@
         <v>70</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J42" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5777,24 +5773,24 @@
         <v>69</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5805,28 +5801,28 @@
         <v>70</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G43" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H43" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -5876,24 +5872,24 @@
         <v>69</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5913,22 +5909,22 @@
         <v>69</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>69</v>
@@ -5953,29 +5949,29 @@
         <v>69</v>
       </c>
       <c r="W44" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="X44" t="s" s="2">
+      <c r="Z44" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AA44" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>70</v>
@@ -5984,21 +5980,21 @@
         <v>71</v>
       </c>
       <c r="AH44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI44" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6014,22 +6010,22 @@
         <v>69</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="N45" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>69</v>
@@ -6054,13 +6050,13 @@
         <v>69</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>69</v>
@@ -6078,7 +6074,7 @@
         <v>69</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>70</v>
@@ -6087,15 +6083,15 @@
         <v>71</v>
       </c>
       <c r="AH45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI45" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6106,7 +6102,7 @@
         <v>70</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>69</v>
@@ -6118,13 +6114,13 @@
         <v>69</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6175,13 +6171,13 @@
         <v>69</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>69</v>
@@ -6192,11 +6188,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6215,16 +6211,16 @@
         <v>69</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K47" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="L47" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6262,19 +6258,19 @@
         <v>69</v>
       </c>
       <c r="AA47" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AB47" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AB47" t="s" s="2">
+      <c r="AC47" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD47" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AC47" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AE47" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>70</v>
@@ -6283,15 +6279,15 @@
         <v>71</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6311,22 +6307,22 @@
         <v>69</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>69</v>
@@ -6375,7 +6371,7 @@
         <v>69</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>70</v>
@@ -6384,15 +6380,15 @@
         <v>71</v>
       </c>
       <c r="AH48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI48" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6403,7 +6399,7 @@
         <v>70</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>69</v>
@@ -6415,13 +6411,13 @@
         <v>69</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6472,13 +6468,13 @@
         <v>69</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>69</v>
@@ -6489,11 +6485,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6512,16 +6508,16 @@
         <v>69</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K50" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="L50" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6559,19 +6555,19 @@
         <v>69</v>
       </c>
       <c r="AA50" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AB50" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AB50" t="s" s="2">
+      <c r="AC50" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD50" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AC50" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AE50" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>70</v>
@@ -6580,15 +6576,15 @@
         <v>71</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6596,41 +6592,41 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="F51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>69</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>69</v>
@@ -6672,24 +6668,24 @@
         <v>69</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI51" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6700,28 +6696,28 @@
         <v>70</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -6771,24 +6767,24 @@
         <v>69</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI52" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6796,34 +6792,34 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="F53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>69</v>
@@ -6872,24 +6868,24 @@
         <v>69</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI53" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6900,31 +6896,31 @@
         <v>70</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>69</v>
@@ -6973,24 +6969,24 @@
         <v>69</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI54" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7001,31 +6997,31 @@
         <v>70</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>69</v>
@@ -7074,24 +7070,24 @@
         <v>69</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI55" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7102,31 +7098,31 @@
         <v>70</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>69</v>
@@ -7175,24 +7171,24 @@
         <v>69</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI56" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7212,19 +7208,19 @@
         <v>69</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7250,29 +7246,29 @@
         <v>69</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB57" s="2"/>
       <c r="AC57" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>70</v>
@@ -7281,21 +7277,21 @@
         <v>71</v>
       </c>
       <c r="AH57" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI57" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7311,19 +7307,19 @@
         <v>69</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7349,13 +7345,13 @@
         <v>69</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>69</v>
@@ -7373,7 +7369,7 @@
         <v>69</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>70</v>
@@ -7382,15 +7378,15 @@
         <v>71</v>
       </c>
       <c r="AH58" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI58" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7401,7 +7397,7 @@
         <v>70</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>69</v>
@@ -7413,13 +7409,13 @@
         <v>69</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7470,13 +7466,13 @@
         <v>69</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>69</v>
@@ -7487,11 +7483,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -7510,16 +7506,16 @@
         <v>69</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K60" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="L60" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7557,19 +7553,19 @@
         <v>69</v>
       </c>
       <c r="AA60" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AB60" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AB60" t="s" s="2">
+      <c r="AC60" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD60" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AC60" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AE60" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>70</v>
@@ -7578,15 +7574,15 @@
         <v>71</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7606,22 +7602,22 @@
         <v>69</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>69</v>
@@ -7670,7 +7666,7 @@
         <v>69</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>70</v>
@@ -7679,15 +7675,15 @@
         <v>71</v>
       </c>
       <c r="AH61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI61" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7698,7 +7694,7 @@
         <v>70</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>69</v>
@@ -7710,13 +7706,13 @@
         <v>69</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7767,13 +7763,13 @@
         <v>69</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>69</v>
@@ -7784,11 +7780,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -7807,16 +7803,16 @@
         <v>69</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K63" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="L63" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -7854,19 +7850,19 @@
         <v>69</v>
       </c>
       <c r="AA63" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AB63" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AB63" t="s" s="2">
+      <c r="AC63" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD63" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AC63" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AE63" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>70</v>
@@ -7875,57 +7871,57 @@
         <v>71</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="F64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J64" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>69</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>69</v>
@@ -7967,24 +7963,24 @@
         <v>69</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI64" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -7995,28 +7991,28 @@
         <v>70</v>
       </c>
       <c r="F65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J65" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8066,24 +8062,24 @@
         <v>69</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI65" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8091,34 +8087,34 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="F66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J66" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>69</v>
@@ -8167,24 +8163,24 @@
         <v>69</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI66" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8195,31 +8191,31 @@
         <v>70</v>
       </c>
       <c r="F67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I67" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G67" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J67" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>69</v>
@@ -8268,24 +8264,24 @@
         <v>69</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI67" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8296,31 +8292,31 @@
         <v>70</v>
       </c>
       <c r="F68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G68" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J68" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>69</v>
@@ -8369,24 +8365,24 @@
         <v>69</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI68" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8397,31 +8393,31 @@
         <v>70</v>
       </c>
       <c r="F69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G69" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J69" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>69</v>
@@ -8470,24 +8466,24 @@
         <v>69</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI69" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8507,19 +8503,19 @@
         <v>69</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="K70" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="M70" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -8569,7 +8565,7 @@
         <v>69</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>70</v>
@@ -8578,15 +8574,15 @@
         <v>71</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>159</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8609,16 +8605,16 @@
         <v>69</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L71" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="M71" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -8668,7 +8664,7 @@
         <v>69</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>70</v>
@@ -8677,15 +8673,15 @@
         <v>71</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>159</v>
+        <v>341</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8705,20 +8701,20 @@
         <v>69</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>69</v>
@@ -8767,7 +8763,7 @@
         <v>69</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>70</v>
@@ -8776,15 +8772,15 @@
         <v>71</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8807,16 +8803,16 @@
         <v>69</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -8866,7 +8862,7 @@
         <v>69</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>70</v>
@@ -8875,15 +8871,15 @@
         <v>71</v>
       </c>
       <c r="AH73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI73" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -8894,7 +8890,7 @@
         <v>70</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>69</v>
@@ -8906,13 +8902,13 @@
         <v>69</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -8963,13 +8959,13 @@
         <v>69</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>69</v>
@@ -8980,11 +8976,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9003,16 +8999,16 @@
         <v>69</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K75" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="L75" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -9050,19 +9046,19 @@
         <v>69</v>
       </c>
       <c r="AA75" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AB75" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AB75" t="s" s="2">
+      <c r="AC75" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD75" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AC75" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AE75" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>70</v>
@@ -9071,19 +9067,19 @@
         <v>71</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -9096,25 +9092,25 @@
         <v>69</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="M76" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>69</v>
@@ -9163,7 +9159,7 @@
         <v>69</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>70</v>
@@ -9172,15 +9168,15 @@
         <v>71</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9203,16 +9199,16 @@
         <v>69</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L77" t="s" s="2">
-        <v>367</v>
-      </c>
       <c r="M77" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -9238,14 +9234,14 @@
         <v>69</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="X77" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="Y77" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="Y77" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="Z77" t="s" s="2">
         <v>69</v>
       </c>
@@ -9262,7 +9258,7 @@
         <v>69</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>70</v>
@@ -9271,15 +9267,15 @@
         <v>71</v>
       </c>
       <c r="AH77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI77" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9290,7 +9286,7 @@
         <v>70</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>69</v>
@@ -9302,13 +9298,13 @@
         <v>69</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9359,24 +9355,24 @@
         <v>69</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI78" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9387,7 +9383,7 @@
         <v>70</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>69</v>
@@ -9399,16 +9395,16 @@
         <v>69</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -9458,24 +9454,24 @@
         <v>69</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI79" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9486,7 +9482,7 @@
         <v>70</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>69</v>
@@ -9498,16 +9494,16 @@
         <v>69</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L80" t="s" s="2">
-        <v>380</v>
-      </c>
       <c r="M80" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -9557,24 +9553,24 @@
         <v>69</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI80" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9597,13 +9593,13 @@
         <v>69</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -9654,7 +9650,7 @@
         <v>69</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>70</v>
@@ -9663,15 +9659,15 @@
         <v>71</v>
       </c>
       <c r="AH81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI81" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9682,7 +9678,7 @@
         <v>70</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>69</v>
@@ -9694,13 +9690,13 @@
         <v>69</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -9751,13 +9747,13 @@
         <v>69</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>69</v>
@@ -9768,11 +9764,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -9791,16 +9787,16 @@
         <v>69</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K83" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="L83" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -9838,19 +9834,19 @@
         <v>69</v>
       </c>
       <c r="AA83" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AB83" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AB83" t="s" s="2">
+      <c r="AC83" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD83" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AC83" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AE83" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>70</v>
@@ -9859,19 +9855,19 @@
         <v>71</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -9884,25 +9880,25 @@
         <v>69</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="M84" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>69</v>
@@ -9951,7 +9947,7 @@
         <v>69</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>70</v>
@@ -9960,15 +9956,15 @@
         <v>71</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -9976,10 +9972,10 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>69</v>
@@ -9991,16 +9987,16 @@
         <v>69</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L85" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="M85" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10050,24 +10046,24 @@
         <v>69</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH85" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI85" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10078,7 +10074,7 @@
         <v>70</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>69</v>
@@ -10090,16 +10086,16 @@
         <v>69</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L86" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="M86" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -10149,24 +10145,24 @@
         <v>69</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10177,7 +10173,7 @@
         <v>70</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>69</v>
@@ -10189,16 +10185,16 @@
         <v>69</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L87" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="M87" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -10248,24 +10244,24 @@
         <v>69</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI87" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10288,19 +10284,19 @@
         <v>69</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N88" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>69</v>
@@ -10349,7 +10345,7 @@
         <v>69</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>70</v>
@@ -10358,10 +10354,10 @@
         <v>71</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>159</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-10T09:03:48+00:00</t>
+    <t>2022-11-09T12:26:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T12:26:10+00:00</t>
+    <t>2022-11-25T10:32:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T10:32:08+00:00</t>
+    <t>2022-12-08T09:21:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T09:32:03+00:00</t>
+    <t>2022-12-23T09:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T09:40:36+00:00</t>
+    <t>2022-12-23T09:52:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="426">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T09:52:16+00:00</t>
+    <t>2023-01-09T13:10:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -235,6 +235,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Roles/organizations the practitioner is associated with</t>
@@ -1835,13 +1839,13 @@
         <v>70</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1909,10 +1913,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1923,7 +1927,7 @@
         <v>71</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>70</v>
@@ -1932,19 +1936,19 @@
         <v>70</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1994,13 +1998,13 @@
         <v>70</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>70</v>
@@ -2011,10 +2015,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2025,7 +2029,7 @@
         <v>71</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>70</v>
@@ -2034,16 +2038,16 @@
         <v>70</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2094,27 +2098,27 @@
         <v>70</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2125,28 +2129,28 @@
         <v>71</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2196,27 +2200,27 @@
         <v>70</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2227,7 +2231,7 @@
         <v>71</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>70</v>
@@ -2239,16 +2243,16 @@
         <v>70</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2274,13 +2278,13 @@
         <v>70</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>70</v>
@@ -2298,38 +2302,38 @@
         <v>70</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>70</v>
@@ -2341,16 +2345,16 @@
         <v>70</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2400,31 +2404,31 @@
         <v>70</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2443,16 +2447,16 @@
         <v>70</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2502,7 +2506,7 @@
         <v>70</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>71</v>
@@ -2519,14 +2523,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2545,16 +2549,16 @@
         <v>70</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2592,19 +2596,19 @@
         <v>70</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>71</v>
@@ -2613,22 +2617,22 @@
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2641,25 +2645,25 @@
         <v>70</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>70</v>
@@ -2696,19 +2700,19 @@
         <v>70</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>71</v>
@@ -2717,18 +2721,18 @@
         <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2748,20 +2752,20 @@
         <v>70</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>70</v>
@@ -2810,7 +2814,7 @@
         <v>70</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>71</v>
@@ -2819,18 +2823,18 @@
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2841,7 +2845,7 @@
         <v>71</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>70</v>
@@ -2850,93 +2854,93 @@
         <v>70</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="AG12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2947,7 +2951,7 @@
         <v>71</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>70</v>
@@ -2956,22 +2960,22 @@
         <v>70</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>70</v>
@@ -3020,27 +3024,27 @@
         <v>70</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3051,7 +3055,7 @@
         <v>71</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>70</v>
@@ -3060,19 +3064,19 @@
         <v>70</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3122,16 +3126,16 @@
         <v>70</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>70</v>
@@ -3139,10 +3143,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3153,7 +3157,7 @@
         <v>71</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>70</v>
@@ -3165,13 +3169,13 @@
         <v>70</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3222,13 +3226,13 @@
         <v>70</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>70</v>
@@ -3239,14 +3243,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3265,16 +3269,16 @@
         <v>70</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3312,19 +3316,19 @@
         <v>70</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>71</v>
@@ -3336,15 +3340,15 @@
         <v>70</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3355,7 +3359,7 @@
         <v>71</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>70</v>
@@ -3364,19 +3368,19 @@
         <v>70</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3426,27 +3430,27 @@
         <v>70</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3457,7 +3461,7 @@
         <v>71</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>70</v>
@@ -3466,19 +3470,19 @@
         <v>70</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3504,13 +3508,13 @@
         <v>70</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>70</v>
@@ -3528,27 +3532,27 @@
         <v>70</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3559,28 +3563,28 @@
         <v>71</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3630,27 +3634,27 @@
         <v>70</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3661,7 +3665,7 @@
         <v>71</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>70</v>
@@ -3673,13 +3677,13 @@
         <v>70</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3730,13 +3734,13 @@
         <v>70</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>70</v>
@@ -3747,14 +3751,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3773,16 +3777,16 @@
         <v>70</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3820,19 +3824,19 @@
         <v>70</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>71</v>
@@ -3844,15 +3848,15 @@
         <v>70</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3863,31 +3867,31 @@
         <v>71</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>70</v>
@@ -3912,13 +3916,13 @@
         <v>70</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>70</v>
@@ -3936,27 +3940,27 @@
         <v>70</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3967,7 +3971,7 @@
         <v>71</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>70</v>
@@ -3976,22 +3980,22 @@
         <v>70</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>70</v>
@@ -4016,13 +4020,13 @@
         <v>70</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>70</v>
@@ -4040,27 +4044,27 @@
         <v>70</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4071,31 +4075,31 @@
         <v>71</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>70</v>
@@ -4108,7 +4112,7 @@
         <v>70</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>70</v>
@@ -4120,11 +4124,11 @@
         <v>70</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>70</v>
@@ -4142,27 +4146,27 @@
         <v>70</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4173,28 +4177,28 @@
         <v>71</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4208,7 +4212,7 @@
         <v>70</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>70</v>
@@ -4244,27 +4248,27 @@
         <v>70</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4275,7 +4279,7 @@
         <v>71</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>70</v>
@@ -4284,16 +4288,16 @@
         <v>70</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4344,27 +4348,27 @@
         <v>70</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4375,7 +4379,7 @@
         <v>71</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>70</v>
@@ -4384,19 +4388,19 @@
         <v>70</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4446,27 +4450,27 @@
         <v>70</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4477,28 +4481,28 @@
         <v>71</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4548,27 +4552,27 @@
         <v>70</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4579,7 +4583,7 @@
         <v>71</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>70</v>
@@ -4588,19 +4592,19 @@
         <v>70</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4650,16 +4654,16 @@
         <v>70</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>70</v>
@@ -4667,10 +4671,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4681,7 +4685,7 @@
         <v>71</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>70</v>
@@ -4693,13 +4697,13 @@
         <v>70</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4750,13 +4754,13 @@
         <v>70</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>70</v>
@@ -4767,14 +4771,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4793,16 +4797,16 @@
         <v>70</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4840,19 +4844,19 @@
         <v>70</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>71</v>
@@ -4864,15 +4868,15 @@
         <v>70</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4883,7 +4887,7 @@
         <v>71</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>70</v>
@@ -4892,19 +4896,19 @@
         <v>70</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4954,27 +4958,27 @@
         <v>70</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4985,7 +4989,7 @@
         <v>71</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>70</v>
@@ -4994,19 +4998,19 @@
         <v>70</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5032,13 +5036,13 @@
         <v>70</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>70</v>
@@ -5056,27 +5060,27 @@
         <v>70</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5087,28 +5091,28 @@
         <v>71</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5158,27 +5162,27 @@
         <v>70</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5189,7 +5193,7 @@
         <v>71</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>70</v>
@@ -5201,13 +5205,13 @@
         <v>70</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5258,13 +5262,13 @@
         <v>70</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>70</v>
@@ -5275,14 +5279,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5301,16 +5305,16 @@
         <v>70</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5348,19 +5352,19 @@
         <v>70</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>71</v>
@@ -5372,15 +5376,15 @@
         <v>70</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5391,31 +5395,31 @@
         <v>71</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>70</v>
@@ -5440,13 +5444,13 @@
         <v>70</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>70</v>
@@ -5464,27 +5468,27 @@
         <v>70</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5495,7 +5499,7 @@
         <v>71</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>70</v>
@@ -5504,22 +5508,22 @@
         <v>70</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>70</v>
@@ -5544,13 +5548,13 @@
         <v>70</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>70</v>
@@ -5568,27 +5572,27 @@
         <v>70</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5599,31 +5603,31 @@
         <v>71</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>70</v>
@@ -5636,7 +5640,7 @@
         <v>70</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>70</v>
@@ -5648,11 +5652,11 @@
         <v>70</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>70</v>
@@ -5670,27 +5674,27 @@
         <v>70</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5701,28 +5705,28 @@
         <v>71</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5736,7 +5740,7 @@
         <v>70</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>70</v>
@@ -5772,27 +5776,27 @@
         <v>70</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5803,7 +5807,7 @@
         <v>71</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>70</v>
@@ -5812,16 +5816,16 @@
         <v>70</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5872,27 +5876,27 @@
         <v>70</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5903,7 +5907,7 @@
         <v>71</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>70</v>
@@ -5912,19 +5916,19 @@
         <v>70</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5974,27 +5978,27 @@
         <v>70</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6005,28 +6009,28 @@
         <v>71</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6076,27 +6080,27 @@
         <v>70</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6116,22 +6120,22 @@
         <v>70</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>70</v>
@@ -6156,29 +6160,29 @@
         <v>70</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>71</v>
@@ -6187,24 +6191,24 @@
         <v>72</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6220,22 +6224,22 @@
         <v>70</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>70</v>
@@ -6260,13 +6264,13 @@
         <v>70</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>70</v>
@@ -6284,7 +6288,7 @@
         <v>70</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>71</v>
@@ -6293,18 +6297,18 @@
         <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6315,7 +6319,7 @@
         <v>71</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>70</v>
@@ -6327,13 +6331,13 @@
         <v>70</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6384,13 +6388,13 @@
         <v>70</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>70</v>
@@ -6401,14 +6405,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6427,16 +6431,16 @@
         <v>70</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6474,19 +6478,19 @@
         <v>70</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>71</v>
@@ -6495,18 +6499,18 @@
         <v>72</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6526,22 +6530,22 @@
         <v>70</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>70</v>
@@ -6590,7 +6594,7 @@
         <v>70</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>71</v>
@@ -6599,18 +6603,18 @@
         <v>72</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6621,7 +6625,7 @@
         <v>71</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>70</v>
@@ -6633,13 +6637,13 @@
         <v>70</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6690,13 +6694,13 @@
         <v>70</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>70</v>
@@ -6707,14 +6711,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6733,16 +6737,16 @@
         <v>70</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -6780,19 +6784,19 @@
         <v>70</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>71</v>
@@ -6801,18 +6805,18 @@
         <v>72</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6820,10 +6824,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>70</v>
@@ -6832,29 +6836,29 @@
         <v>70</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>70</v>
@@ -6896,27 +6900,27 @@
         <v>70</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6927,7 +6931,7 @@
         <v>71</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>70</v>
@@ -6936,19 +6940,19 @@
         <v>70</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -6998,27 +7002,27 @@
         <v>70</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7026,10 +7030,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>70</v>
@@ -7038,22 +7042,22 @@
         <v>70</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>70</v>
@@ -7102,27 +7106,27 @@
         <v>70</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7133,7 +7137,7 @@
         <v>71</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>70</v>
@@ -7142,22 +7146,22 @@
         <v>70</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>70</v>
@@ -7206,27 +7210,27 @@
         <v>70</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7237,7 +7241,7 @@
         <v>71</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>70</v>
@@ -7246,22 +7250,22 @@
         <v>70</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>70</v>
@@ -7310,27 +7314,27 @@
         <v>70</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7341,7 +7345,7 @@
         <v>71</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>70</v>
@@ -7350,22 +7354,22 @@
         <v>70</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>70</v>
@@ -7414,27 +7418,27 @@
         <v>70</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7454,19 +7458,19 @@
         <v>70</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -7492,29 +7496,29 @@
         <v>70</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>71</v>
@@ -7523,24 +7527,24 @@
         <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7556,19 +7560,19 @@
         <v>70</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -7594,13 +7598,13 @@
         <v>70</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>70</v>
@@ -7618,7 +7622,7 @@
         <v>70</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>71</v>
@@ -7627,18 +7631,18 @@
         <v>72</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7649,7 +7653,7 @@
         <v>71</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>70</v>
@@ -7661,13 +7665,13 @@
         <v>70</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7718,13 +7722,13 @@
         <v>70</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>70</v>
@@ -7735,14 +7739,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -7761,16 +7765,16 @@
         <v>70</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -7808,19 +7812,19 @@
         <v>70</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>71</v>
@@ -7829,18 +7833,18 @@
         <v>72</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7860,22 +7864,22 @@
         <v>70</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>70</v>
@@ -7924,7 +7928,7 @@
         <v>70</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>71</v>
@@ -7933,18 +7937,18 @@
         <v>72</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7955,7 +7959,7 @@
         <v>71</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>70</v>
@@ -7967,13 +7971,13 @@
         <v>70</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8024,13 +8028,13 @@
         <v>70</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>70</v>
@@ -8041,14 +8045,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8067,16 +8071,16 @@
         <v>70</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8114,19 +8118,19 @@
         <v>70</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>71</v>
@@ -8135,29 +8139,29 @@
         <v>72</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>70</v>
@@ -8166,29 +8170,29 @@
         <v>70</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>70</v>
@@ -8230,27 +8234,27 @@
         <v>70</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8261,7 +8265,7 @@
         <v>71</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>70</v>
@@ -8270,19 +8274,19 @@
         <v>70</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -8332,27 +8336,27 @@
         <v>70</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8360,10 +8364,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>70</v>
@@ -8372,22 +8376,22 @@
         <v>70</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>70</v>
@@ -8436,27 +8440,27 @@
         <v>70</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8467,7 +8471,7 @@
         <v>71</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>70</v>
@@ -8476,22 +8480,22 @@
         <v>70</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>70</v>
@@ -8540,27 +8544,27 @@
         <v>70</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8571,7 +8575,7 @@
         <v>71</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>70</v>
@@ -8580,22 +8584,22 @@
         <v>70</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>70</v>
@@ -8644,27 +8648,27 @@
         <v>70</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8675,7 +8679,7 @@
         <v>71</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>70</v>
@@ -8684,22 +8688,22 @@
         <v>70</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>70</v>
@@ -8748,27 +8752,27 @@
         <v>70</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8788,19 +8792,19 @@
         <v>70</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -8850,7 +8854,7 @@
         <v>70</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>71</v>
@@ -8859,18 +8863,18 @@
         <v>72</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -8893,16 +8897,16 @@
         <v>70</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -8952,7 +8956,7 @@
         <v>70</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>71</v>
@@ -8961,18 +8965,18 @@
         <v>72</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -8992,20 +8996,20 @@
         <v>70</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>70</v>
@@ -9054,7 +9058,7 @@
         <v>70</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>71</v>
@@ -9063,18 +9067,18 @@
         <v>72</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9097,16 +9101,16 @@
         <v>70</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9156,7 +9160,7 @@
         <v>70</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>71</v>
@@ -9165,18 +9169,18 @@
         <v>72</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9187,7 +9191,7 @@
         <v>71</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>70</v>
@@ -9199,13 +9203,13 @@
         <v>70</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9256,13 +9260,13 @@
         <v>70</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>70</v>
@@ -9273,14 +9277,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -9299,16 +9303,16 @@
         <v>70</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -9346,19 +9350,19 @@
         <v>70</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>71</v>
@@ -9367,22 +9371,22 @@
         <v>72</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -9395,25 +9399,25 @@
         <v>70</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>70</v>
@@ -9462,7 +9466,7 @@
         <v>70</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>71</v>
@@ -9471,18 +9475,18 @@
         <v>72</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9505,16 +9509,16 @@
         <v>70</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -9540,13 +9544,13 @@
         <v>70</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>70</v>
@@ -9564,7 +9568,7 @@
         <v>70</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>71</v>
@@ -9573,18 +9577,18 @@
         <v>72</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9595,7 +9599,7 @@
         <v>71</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>70</v>
@@ -9607,13 +9611,13 @@
         <v>70</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -9664,27 +9668,27 @@
         <v>70</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9695,7 +9699,7 @@
         <v>71</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>70</v>
@@ -9707,16 +9711,16 @@
         <v>70</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -9766,27 +9770,27 @@
         <v>70</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9797,7 +9801,7 @@
         <v>71</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>70</v>
@@ -9809,16 +9813,16 @@
         <v>70</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -9868,27 +9872,27 @@
         <v>70</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -9911,13 +9915,13 @@
         <v>70</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -9968,7 +9972,7 @@
         <v>70</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>71</v>
@@ -9977,18 +9981,18 @@
         <v>72</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -9999,7 +10003,7 @@
         <v>71</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>70</v>
@@ -10011,13 +10015,13 @@
         <v>70</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10068,13 +10072,13 @@
         <v>70</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>70</v>
@@ -10085,14 +10089,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -10111,16 +10115,16 @@
         <v>70</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -10158,19 +10162,19 @@
         <v>70</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>71</v>
@@ -10179,22 +10183,22 @@
         <v>72</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -10207,25 +10211,25 @@
         <v>70</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>70</v>
@@ -10274,7 +10278,7 @@
         <v>70</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>71</v>
@@ -10283,18 +10287,18 @@
         <v>72</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10302,10 +10306,10 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>70</v>
@@ -10317,16 +10321,16 @@
         <v>70</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -10376,27 +10380,27 @@
         <v>70</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10407,7 +10411,7 @@
         <v>71</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>70</v>
@@ -10419,16 +10423,16 @@
         <v>70</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -10478,27 +10482,27 @@
         <v>70</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10509,7 +10513,7 @@
         <v>71</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>70</v>
@@ -10521,16 +10525,16 @@
         <v>70</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -10580,27 +10584,27 @@
         <v>70</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -10623,19 +10627,19 @@
         <v>70</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>70</v>
@@ -10684,7 +10688,7 @@
         <v>70</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>71</v>
@@ -10693,10 +10697,10 @@
         <v>72</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T13:10:52+00:00</t>
+    <t>2023-02-27T07:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:47:29+00:00</t>
+    <t>2023-06-07T09:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T12:17:56+00:00</t>
+    <t>2024-07-02T13:23:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.1</t>
+    <t>1.4.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T13:23:40+00:00</t>
+    <t>2025-03-20T10:06:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-practitioner-role.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="420">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.2</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-20T10:06:13+00:00</t>
+    <t>2025-09-10T06:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -251,7 +251,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PractitionerRole.id</t>
@@ -295,10 +295,6 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -416,6 +412,118 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>PractitionerRole.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifiers that are specific to a role/location</t>
+  </si>
+  <si>
+    <t>Business Identifiers that are specific to a role/location.</t>
+  </si>
+  <si>
+    <t>Often, specific identities are assigned for the agent.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether this practitioner role record is in active use</t>
+  </si>
+  <si>
+    <t>Whether this practitioner role record is in active use.</t>
+  </si>
+  <si>
+    <t>If this value is false, you may refer to the period to see when the role was in active use. If there is no period specified, no inference can be made about when it was active.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a practitioner role record as not to be used because it was created in error, or otherwise no longer in active use.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>PractitionerRole.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>The period during which the practitioner is authorized to perform in these role(s)</t>
+  </si>
+  <si>
+    <t>The period during which the person is authorized to act as a practitioner in these role(s) for the organization.</t>
+  </si>
+  <si>
+    <t>Even after the agencies is revoked, the fact that it existed must still be recorded.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.practitioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner)
+</t>
+  </si>
+  <si>
+    <t>Practitioner that is able to provide the defined services for the organization</t>
+  </si>
+  <si>
+    <t>Reference to Practitioner. May come from a direct mapping from or from a fallback in original message.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.practitioner.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.practitioner.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -426,133 +534,6 @@
     <t>open</t>
   </si>
   <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>PractitionerRole.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifiers that are specific to a role/location</t>
-  </si>
-  <si>
-    <t>Business Identifiers that are specific to a role/location.</t>
-  </si>
-  <si>
-    <t>Often, specific identities are assigned for the agent.</t>
-  </si>
-  <si>
-    <t>PractitionerRole.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Whether this practitioner role record is in active use</t>
-  </si>
-  <si>
-    <t>Whether this practitioner role record is in active use.</t>
-  </si>
-  <si>
-    <t>If this value is false, you may refer to the period to see when the role was in active use. If there is no period specified, no inference can be made about when it was active.</t>
-  </si>
-  <si>
-    <t>Need to be able to mark a practitioner role record as not to be used because it was created in error, or otherwise no longer in active use.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>PractitionerRole.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>The period during which the practitioner is authorized to perform in these role(s)</t>
-  </si>
-  <si>
-    <t>The period during which the person is authorized to act as a practitioner in these role(s) for the organization.</t>
-  </si>
-  <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>Even after the agencies is revoked, the fact that it existed must still be recorded.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
-    <t>PractitionerRole.practitioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner)
-</t>
-  </si>
-  <si>
-    <t>Practitioner that is able to provide the defined services for the organization</t>
-  </si>
-  <si>
-    <t>Reference to Practitioner. May come from a direct mapping from or from a fallback in original message.</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
-    <t>PractitionerRole.practitioner.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.practitioner.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -594,7 +575,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -673,7 +654,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -736,7 +717,7 @@
     <t>PractitionerRole.practitioner.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -971,9 +952,6 @@
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
@@ -1050,9 +1028,6 @@
 Specific specialty of the practitioner.</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>Specific specialty associated with the agency.</t>
   </si>
   <si>
@@ -1197,10 +1172,6 @@
   </si>
   <si>
     <t>Often practitioners have a dedicated line for each location (or service) that they work at, and need to be able to define separate contact details for each of these.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
   </si>
   <si>
     <t>PractitionerRole.availableTime</t>
@@ -1679,17 +1650,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.94921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="88.0703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.50390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1698,21 +1669,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="46.96875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.21875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.26953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -2122,18 +2093,18 @@
         <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2156,16 +2127,16 @@
         <v>80</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2215,7 +2186,7 @@
         <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>72</v>
@@ -2224,18 +2195,18 @@
         <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2258,16 +2229,16 @@
         <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2293,32 +2264,32 @@
         <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>72</v>
       </c>
@@ -2326,22 +2297,22 @@
         <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2360,16 +2331,16 @@
         <v>19</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2419,7 +2390,7 @@
         <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>72</v>
@@ -2428,22 +2399,22 @@
         <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2462,16 +2433,16 @@
         <v>19</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2521,7 +2492,7 @@
         <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>72</v>
@@ -2538,14 +2509,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2564,16 +2535,16 @@
         <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2611,19 +2582,19 @@
         <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>72</v>
@@ -2632,22 +2603,22 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2666,19 +2637,19 @@
         <v>19</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>19</v>
@@ -2715,19 +2686,19 @@
         <v>19</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>72</v>
@@ -2736,18 +2707,18 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2770,17 +2741,17 @@
         <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>19</v>
@@ -2829,7 +2800,7 @@
         <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>72</v>
@@ -2838,18 +2809,18 @@
         <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2872,26 +2843,26 @@
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O12" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="P12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q12" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="R12" t="s" s="2">
         <v>19</v>
       </c>
@@ -2935,7 +2906,7 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>72</v>
@@ -2944,18 +2915,18 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2978,19 +2949,17 @@
         <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>19</v>
@@ -3039,7 +3008,7 @@
         <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>72</v>
@@ -3048,18 +3017,18 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3082,17 +3051,15 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>19</v>
@@ -3141,7 +3108,7 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>72</v>
@@ -3150,18 +3117,18 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>162</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3184,13 +3151,13 @@
         <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3241,7 +3208,7 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>72</v>
@@ -3258,14 +3225,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3284,16 +3251,16 @@
         <v>19</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="M16" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3331,19 +3298,19 @@
         <v>19</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>72</v>
@@ -3355,15 +3322,15 @@
         <v>19</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3386,16 +3353,16 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3445,7 +3412,7 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>72</v>
@@ -3454,18 +3421,18 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3488,16 +3455,16 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3523,13 +3490,13 @@
         <v>19</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>19</v>
@@ -3547,7 +3514,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>72</v>
@@ -3559,15 +3526,15 @@
         <v>19</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3590,16 +3557,16 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3649,7 +3616,7 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>72</v>
@@ -3661,15 +3628,15 @@
         <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3692,13 +3659,13 @@
         <v>19</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3749,7 +3716,7 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>72</v>
@@ -3766,14 +3733,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3792,16 +3759,16 @@
         <v>19</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="M21" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3839,19 +3806,19 @@
         <v>19</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>72</v>
@@ -3863,15 +3830,15 @@
         <v>19</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3894,19 +3861,19 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>19</v>
@@ -3931,13 +3898,13 @@
         <v>19</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>19</v>
@@ -3955,7 +3922,7 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>72</v>
@@ -3967,15 +3934,15 @@
         <v>19</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3998,19 +3965,19 @@
         <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>19</v>
@@ -4035,13 +4002,13 @@
         <v>19</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>19</v>
@@ -4059,7 +4026,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>72</v>
@@ -4071,15 +4038,15 @@
         <v>19</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4102,19 +4069,19 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>19</v>
@@ -4127,7 +4094,7 @@
         <v>19</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>19</v>
@@ -4139,11 +4106,11 @@
         <v>19</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>19</v>
@@ -4161,7 +4128,7 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>72</v>
@@ -4173,15 +4140,15 @@
         <v>19</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4204,16 +4171,16 @@
         <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4227,7 +4194,7 @@
         <v>19</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>19</v>
@@ -4263,7 +4230,7 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>72</v>
@@ -4275,15 +4242,15 @@
         <v>19</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4306,13 +4273,13 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4363,7 +4330,7 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>72</v>
@@ -4375,15 +4342,15 @@
         <v>19</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4406,16 +4373,16 @@
         <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4465,7 +4432,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>72</v>
@@ -4477,15 +4444,15 @@
         <v>19</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4508,16 +4475,16 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4567,7 +4534,7 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>72</v>
@@ -4579,15 +4546,15 @@
         <v>19</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4610,17 +4577,15 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>19</v>
@@ -4669,7 +4634,7 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>72</v>
@@ -4678,18 +4643,18 @@
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>162</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4712,13 +4677,13 @@
         <v>19</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4769,7 +4734,7 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>72</v>
@@ -4786,14 +4751,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4812,16 +4777,16 @@
         <v>19</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="M31" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4859,19 +4824,19 @@
         <v>19</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>72</v>
@@ -4883,15 +4848,15 @@
         <v>19</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4914,16 +4879,16 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4973,7 +4938,7 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>72</v>
@@ -4982,18 +4947,18 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5016,16 +4981,16 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5051,13 +5016,13 @@
         <v>19</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>19</v>
@@ -5075,7 +5040,7 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>72</v>
@@ -5087,15 +5052,15 @@
         <v>19</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5118,16 +5083,16 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5177,7 +5142,7 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>72</v>
@@ -5189,15 +5154,15 @@
         <v>19</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5220,13 +5185,13 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5277,7 +5242,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>72</v>
@@ -5294,14 +5259,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5320,16 +5285,16 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="M36" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5367,19 +5332,19 @@
         <v>19</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>72</v>
@@ -5391,15 +5356,15 @@
         <v>19</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5422,19 +5387,19 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>19</v>
@@ -5459,13 +5424,13 @@
         <v>19</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>19</v>
@@ -5483,7 +5448,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>72</v>
@@ -5495,15 +5460,15 @@
         <v>19</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5526,19 +5491,19 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>19</v>
@@ -5563,13 +5528,13 @@
         <v>19</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>19</v>
@@ -5587,7 +5552,7 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>72</v>
@@ -5599,15 +5564,15 @@
         <v>19</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5630,19 +5595,19 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>19</v>
@@ -5655,7 +5620,7 @@
         <v>19</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>19</v>
@@ -5667,11 +5632,11 @@
         <v>19</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>19</v>
@@ -5689,7 +5654,7 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>72</v>
@@ -5701,15 +5666,15 @@
         <v>19</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5732,16 +5697,16 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5755,7 +5720,7 @@
         <v>19</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>19</v>
@@ -5791,7 +5756,7 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>72</v>
@@ -5803,15 +5768,15 @@
         <v>19</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5834,13 +5799,13 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5891,7 +5856,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>72</v>
@@ -5903,15 +5868,15 @@
         <v>19</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5934,16 +5899,16 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5993,7 +5958,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>72</v>
@@ -6005,15 +5970,15 @@
         <v>19</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6036,16 +6001,16 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6095,7 +6060,7 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>72</v>
@@ -6107,15 +6072,15 @@
         <v>19</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6138,19 +6103,19 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>19</v>
@@ -6175,29 +6140,29 @@
         <v>19</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>72</v>
@@ -6206,24 +6171,24 @@
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6242,19 +6207,19 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>19</v>
@@ -6279,13 +6244,13 @@
         <v>19</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>19</v>
@@ -6303,7 +6268,7 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>72</v>
@@ -6312,18 +6277,18 @@
         <v>73</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6346,13 +6311,13 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6403,7 +6368,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>72</v>
@@ -6420,14 +6385,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6446,16 +6411,16 @@
         <v>19</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="M47" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6493,19 +6458,19 @@
         <v>19</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>72</v>
@@ -6514,18 +6479,18 @@
         <v>73</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6548,19 +6513,19 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>19</v>
@@ -6609,7 +6574,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>72</v>
@@ -6618,18 +6583,18 @@
         <v>73</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6652,13 +6617,13 @@
         <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6709,7 +6674,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>72</v>
@@ -6726,14 +6691,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6752,16 +6717,16 @@
         <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="M50" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -6799,19 +6764,19 @@
         <v>19</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>72</v>
@@ -6820,18 +6785,18 @@
         <v>73</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6854,26 +6819,26 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>19</v>
@@ -6915,7 +6880,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>72</v>
@@ -6924,18 +6889,18 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6958,16 +6923,16 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7017,7 +6982,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>72</v>
@@ -7026,18 +6991,18 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7060,19 +7025,17 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>19</v>
@@ -7121,7 +7084,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>72</v>
@@ -7130,18 +7093,18 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7164,19 +7127,17 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N54" t="s" s="2">
         <v>305</v>
       </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>19</v>
@@ -7225,7 +7186,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>72</v>
@@ -7234,18 +7195,18 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7268,19 +7229,19 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>19</v>
@@ -7329,7 +7290,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>72</v>
@@ -7338,18 +7299,18 @@
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7372,19 +7333,19 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>19</v>
@@ -7433,7 +7394,7 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>72</v>
@@ -7442,18 +7403,18 @@
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7476,17 +7437,15 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>19</v>
@@ -7511,29 +7470,29 @@
         <v>19</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>72</v>
@@ -7542,24 +7501,24 @@
         <v>73</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B58" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C58" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="D58" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7578,17 +7537,15 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N58" t="s" s="2">
         <v>331</v>
       </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>19</v>
@@ -7613,13 +7570,13 @@
         <v>19</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>19</v>
@@ -7637,7 +7594,7 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>72</v>
@@ -7646,18 +7603,18 @@
         <v>73</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7680,13 +7637,13 @@
         <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7737,7 +7694,7 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>72</v>
@@ -7754,14 +7711,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -7780,16 +7737,16 @@
         <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="M60" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -7827,19 +7784,19 @@
         <v>19</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>72</v>
@@ -7848,18 +7805,18 @@
         <v>73</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7882,19 +7839,19 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>19</v>
@@ -7943,7 +7900,7 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>72</v>
@@ -7952,18 +7909,18 @@
         <v>73</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7986,13 +7943,13 @@
         <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8043,7 +8000,7 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>72</v>
@@ -8060,14 +8017,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8086,16 +8043,16 @@
         <v>19</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="M63" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8133,19 +8090,19 @@
         <v>19</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>72</v>
@@ -8154,22 +8111,22 @@
         <v>73</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8188,26 +8145,26 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>19</v>
@@ -8249,7 +8206,7 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>72</v>
@@ -8258,18 +8215,18 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8292,16 +8249,16 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -8351,7 +8308,7 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>72</v>
@@ -8360,18 +8317,18 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8394,19 +8351,17 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>19</v>
@@ -8455,7 +8410,7 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>72</v>
@@ -8464,18 +8419,18 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8498,19 +8453,17 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N67" t="s" s="2">
         <v>305</v>
       </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>19</v>
@@ -8559,7 +8512,7 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>72</v>
@@ -8568,18 +8521,18 @@
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8602,19 +8555,19 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>19</v>
@@ -8663,7 +8616,7 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>72</v>
@@ -8672,18 +8625,18 @@
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8706,19 +8659,19 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>19</v>
@@ -8767,7 +8720,7 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>72</v>
@@ -8776,18 +8729,18 @@
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8810,17 +8763,15 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>19</v>
@@ -8869,7 +8820,7 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>72</v>
@@ -8878,18 +8829,18 @@
         <v>73</v>
       </c>
       <c r="AI70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>162</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -8912,17 +8863,15 @@
         <v>19</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>19</v>
@@ -8971,7 +8920,7 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>72</v>
@@ -8980,18 +8929,18 @@
         <v>73</v>
       </c>
       <c r="AI71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>162</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9014,17 +8963,17 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>19</v>
@@ -9073,7 +9022,7 @@
         <v>19</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>72</v>
@@ -9082,18 +9031,18 @@
         <v>73</v>
       </c>
       <c r="AI72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>379</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9116,16 +9065,16 @@
         <v>19</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9175,7 +9124,7 @@
         <v>19</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>72</v>
@@ -9184,18 +9133,18 @@
         <v>73</v>
       </c>
       <c r="AI73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9218,13 +9167,13 @@
         <v>19</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9275,7 +9224,7 @@
         <v>19</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>72</v>
@@ -9292,14 +9241,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -9318,16 +9267,16 @@
         <v>19</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L75" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="M75" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -9365,19 +9314,19 @@
         <v>19</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>72</v>
@@ -9386,22 +9335,22 @@
         <v>73</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -9420,19 +9369,19 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>19</v>
@@ -9481,7 +9430,7 @@
         <v>19</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>72</v>
@@ -9490,18 +9439,18 @@
         <v>73</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9524,17 +9473,15 @@
         <v>19</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>19</v>
@@ -9559,13 +9506,13 @@
         <v>19</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>19</v>
@@ -9583,7 +9530,7 @@
         <v>19</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>72</v>
@@ -9592,18 +9539,18 @@
         <v>73</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9626,13 +9573,13 @@
         <v>19</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -9683,7 +9630,7 @@
         <v>19</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>72</v>
@@ -9692,18 +9639,18 @@
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9726,16 +9673,16 @@
         <v>19</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -9785,7 +9732,7 @@
         <v>19</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>72</v>
@@ -9794,18 +9741,18 @@
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9828,16 +9775,16 @@
         <v>19</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -9887,7 +9834,7 @@
         <v>19</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>72</v>
@@ -9896,18 +9843,18 @@
         <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -9930,13 +9877,13 @@
         <v>19</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -9987,7 +9934,7 @@
         <v>19</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>72</v>
@@ -9996,18 +9943,18 @@
         <v>73</v>
       </c>
       <c r="AI81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10030,13 +9977,13 @@
         <v>19</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10087,7 +10034,7 @@
         <v>19</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>72</v>
@@ -10104,14 +10051,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -10130,16 +10077,16 @@
         <v>19</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="M83" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -10177,19 +10124,19 @@
         <v>19</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>72</v>
@@ -10198,22 +10145,22 @@
         <v>73</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -10232,19 +10179,19 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>19</v>
@@ -10293,7 +10240,7 @@
         <v>19</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>72</v>
@@ -10302,18 +10249,18 @@
         <v>73</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10336,17 +10283,15 @@
         <v>19</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>19</v>
@@ -10395,7 +10340,7 @@
         <v>19</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -10404,18 +10349,18 @@
         <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10438,17 +10383,15 @@
         <v>19</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>19</v>
@@ -10497,7 +10440,7 @@
         <v>19</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>72</v>
@@ -10506,18 +10449,18 @@
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10540,17 +10483,15 @@
         <v>19</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>19</v>
@@ -10599,7 +10540,7 @@
         <v>19</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>72</v>
@@ -10608,18 +10549,18 @@
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -10642,19 +10583,17 @@
         <v>19</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>19</v>
@@ -10703,7 +10642,7 @@
         <v>19</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>72</v>
@@ -10712,10 +10651,10 @@
         <v>73</v>
       </c>
       <c r="AI88" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
